--- a/public/migracao/vendas1.xlsx
+++ b/public/migracao/vendas1.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Vendas"/>
   </sheets>
   <definedNames>
-    <definedName name="Vendas">'Vendas'!$A$1:$N$543</definedName>
+    <definedName name="Vendas">'Vendas'!$A$1:$N$552</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18239,6 +18239,9 @@
       <c r="K426" s="2">
         <v>1</v>
       </c>
+      <c r="L426" s="1">
+        <v>44681</v>
+      </c>
       <c r="M426" s="2">
         <v>0</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="L505" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M505" s="2">
         <v>0</v>
@@ -21756,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="L509" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M509" s="2">
         <v>0</v>
@@ -22459,10 +22462,10 @@
         </is>
       </c>
       <c r="H526" s="2">
-        <v>19709.02</v>
+        <v>29716.43</v>
       </c>
       <c r="I526" s="2">
-        <v>19709.02</v>
+        <v>29716.43</v>
       </c>
       <c r="J526" s="0" t="inlineStr">
         <is>
@@ -22473,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="L526" s="1">
-        <v>44651</v>
+        <v>44926</v>
       </c>
       <c r="M526" s="2">
         <v>0</v>
@@ -22642,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="L530" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M530" s="2">
         <v>0</v>
@@ -22758,14 +22761,14 @@
       </c>
       <c r="J533" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K533" s="2">
-        <v>0</v>
+        <v>157480</v>
       </c>
       <c r="L533" s="1">
-        <v>44666</v>
+        <v>44677</v>
       </c>
       <c r="M533" s="2">
         <v>0</v>
@@ -22803,10 +22806,10 @@
         </is>
       </c>
       <c r="K534" s="2">
-        <v>0</v>
+        <v>64450</v>
       </c>
       <c r="L534" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="M534" s="2">
         <v>0</v>
@@ -22844,10 +22847,10 @@
         </is>
       </c>
       <c r="K535" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L535" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="M535" s="2">
         <v>0</v>
@@ -22888,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="L536" s="1">
-        <v>44742</v>
+        <v>44738</v>
       </c>
       <c r="M536" s="2">
         <v>0</v>
@@ -22970,7 +22973,7 @@
         <v>0</v>
       </c>
       <c r="L538" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M538" s="2">
         <v>0</v>
@@ -23011,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="L539" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M539" s="2">
         <v>0</v>
@@ -23034,25 +23037,25 @@
       </c>
       <c r="E540" s="0" t="inlineStr">
         <is>
-          <t>2 BALCÕES CASTAS</t>
+          <t>2 BALCÕES CASTAS E 4 CAIXOTES</t>
         </is>
       </c>
       <c r="H540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="I540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="J540" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="L540" s="1">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="M540" s="2">
         <v>0</v>
@@ -23079,10 +23082,10 @@
         </is>
       </c>
       <c r="H541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="I541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="J541" s="0" t="inlineStr">
         <is>
@@ -23090,10 +23093,10 @@
         </is>
       </c>
       <c r="K541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L541" s="1">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="M541" s="2">
         <v>0</v>
@@ -23134,7 +23137,7 @@
         <v>20625</v>
       </c>
       <c r="L542" s="1">
-        <v>44669</v>
+        <v>44708</v>
       </c>
       <c r="M542" s="2">
         <v>0</v>
@@ -23181,6 +23184,375 @@
         <v>0</v>
       </c>
       <c r="N543" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="544">
+      <c r="A544" s="0">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>44644</v>
+      </c>
+      <c r="D544" s="0" t="inlineStr">
+        <is>
+          <t>V3A</t>
+        </is>
+      </c>
+      <c r="E544" s="0" t="inlineStr">
+        <is>
+          <t>PETROBRAS ROVR NA RIO2C</t>
+        </is>
+      </c>
+      <c r="H544" s="2">
+        <v>269000</v>
+      </c>
+      <c r="I544" s="2">
+        <v>269000</v>
+      </c>
+      <c r="J544" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K544" s="2">
+        <v>0</v>
+      </c>
+      <c r="L544" s="1">
+        <v>44705</v>
+      </c>
+      <c r="M544" s="2">
+        <v>0</v>
+      </c>
+      <c r="N544" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="545">
+      <c r="A545" s="0">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>44655</v>
+      </c>
+      <c r="D545" s="0" t="inlineStr">
+        <is>
+          <t>ÓTIMA CONCESSIONÁRIA</t>
+        </is>
+      </c>
+      <c r="E545" s="0" t="inlineStr">
+        <is>
+          <t>WARNER ANIMAIS FANTÁSTICOS</t>
+        </is>
+      </c>
+      <c r="H545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="I545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="J545" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="L545" s="1">
+        <v>44724</v>
+      </c>
+      <c r="M545" s="2">
+        <v>0</v>
+      </c>
+      <c r="N545" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="546">
+      <c r="A546" s="0">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>44655</v>
+      </c>
+      <c r="D546" s="0" t="inlineStr">
+        <is>
+          <t>NETZA</t>
+        </is>
+      </c>
+      <c r="E546" s="0" t="inlineStr">
+        <is>
+          <t>STAND EVE RIO2C</t>
+        </is>
+      </c>
+      <c r="H546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="I546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="J546" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="L546" s="1">
+        <v>44718</v>
+      </c>
+      <c r="M546" s="2">
+        <v>0</v>
+      </c>
+      <c r="N546" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="547">
+      <c r="A547" s="0">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>44658</v>
+      </c>
+      <c r="D547" s="0" t="inlineStr">
+        <is>
+          <t>CERVEJARIA  PRAYA</t>
+        </is>
+      </c>
+      <c r="E547" s="0" t="inlineStr">
+        <is>
+          <t>BAILE DO ENCANTO</t>
+        </is>
+      </c>
+      <c r="H547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="I547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J547" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="L547" s="1">
+        <v>44681</v>
+      </c>
+      <c r="M547" s="2">
+        <v>0</v>
+      </c>
+      <c r="N547" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="548">
+      <c r="A548" s="0">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>44658</v>
+      </c>
+      <c r="D548" s="0" t="inlineStr">
+        <is>
+          <t>AGÊNCIA TERRUÁ</t>
+        </is>
+      </c>
+      <c r="E548" s="0" t="inlineStr">
+        <is>
+          <t>STAND BANCO DO BRASIL RIO2C</t>
+        </is>
+      </c>
+      <c r="H548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="J548" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="L548" s="1">
+        <v>44719</v>
+      </c>
+      <c r="M548" s="2">
+        <v>0</v>
+      </c>
+      <c r="N548" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="549">
+      <c r="A549" s="0">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D549" s="0" t="inlineStr">
+        <is>
+          <t>LVHM</t>
+        </is>
+      </c>
+      <c r="E549" s="0" t="inlineStr">
+        <is>
+          <t>REMONTAGEM BAR BELVERDE</t>
+        </is>
+      </c>
+      <c r="H549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="I549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="J549" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L549" s="1">
+        <v>44681</v>
+      </c>
+      <c r="M549" s="2">
+        <v>0</v>
+      </c>
+      <c r="N549" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="550">
+      <c r="A550" s="0">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1">
+        <v>44665</v>
+      </c>
+      <c r="D550" s="0" t="inlineStr">
+        <is>
+          <t>GLOBO SAT</t>
+        </is>
+      </c>
+      <c r="E550" s="0" t="inlineStr">
+        <is>
+          <t>TÚNEL DO AMOR</t>
+        </is>
+      </c>
+      <c r="H550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="J550" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="L550" s="1">
+        <v>44712</v>
+      </c>
+      <c r="M550" s="2">
+        <v>0</v>
+      </c>
+      <c r="N550" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="551">
+      <c r="A551" s="0">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1">
+        <v>44666</v>
+      </c>
+      <c r="D551" s="0" t="inlineStr">
+        <is>
+          <t>GLOBO COMUNICAÇÕES</t>
+        </is>
+      </c>
+      <c r="E551" s="0" t="inlineStr">
+        <is>
+          <t>CUBO RIO2C</t>
+        </is>
+      </c>
+      <c r="H551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="I551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="J551" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="L551" s="1">
+        <v>44681</v>
+      </c>
+      <c r="M551" s="2">
+        <v>0</v>
+      </c>
+      <c r="N551" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="552">
+      <c r="A552" s="0">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1">
+        <v>44667</v>
+      </c>
+      <c r="D552" s="0" t="inlineStr">
+        <is>
+          <t>BE COMUNICA</t>
+        </is>
+      </c>
+      <c r="E552" s="0" t="inlineStr">
+        <is>
+          <t>STAND DASA</t>
+        </is>
+      </c>
+      <c r="H552" s="2">
+        <v>0</v>
+      </c>
+      <c r="I552" s="2">
+        <v>85248</v>
+      </c>
+      <c r="J552" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K552" s="2">
+        <v>85248</v>
+      </c>
+      <c r="L552" s="1">
+        <v>44702</v>
+      </c>
+      <c r="M552" s="2">
+        <v>0</v>
+      </c>
+      <c r="N552" s="2">
         <v>0</v>
       </c>
     </row>

--- a/public/migracao/vendas1.xlsx
+++ b/public/migracao/vendas1.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Vendas"/>
   </sheets>
   <definedNames>
-    <definedName name="Vendas">'Vendas'!$A$1:$N$543</definedName>
+    <definedName name="Vendas">'Vendas'!$A$1:$N$554</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18239,6 +18239,9 @@
       <c r="K426" s="2">
         <v>1</v>
       </c>
+      <c r="L426" s="1">
+        <v>44681</v>
+      </c>
       <c r="M426" s="2">
         <v>0</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="L505" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M505" s="2">
         <v>0</v>
@@ -21756,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="L509" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M509" s="2">
         <v>0</v>
@@ -22459,10 +22462,10 @@
         </is>
       </c>
       <c r="H526" s="2">
-        <v>19709.02</v>
+        <v>42420.51</v>
       </c>
       <c r="I526" s="2">
-        <v>19709.02</v>
+        <v>42420.51</v>
       </c>
       <c r="J526" s="0" t="inlineStr">
         <is>
@@ -22473,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="L526" s="1">
-        <v>44651</v>
+        <v>44926</v>
       </c>
       <c r="M526" s="2">
         <v>0</v>
@@ -22642,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="L530" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M530" s="2">
         <v>0</v>
@@ -22758,14 +22761,14 @@
       </c>
       <c r="J533" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K533" s="2">
-        <v>0</v>
+        <v>157480</v>
       </c>
       <c r="L533" s="1">
-        <v>44666</v>
+        <v>44677</v>
       </c>
       <c r="M533" s="2">
         <v>0</v>
@@ -22803,10 +22806,10 @@
         </is>
       </c>
       <c r="K534" s="2">
-        <v>0</v>
+        <v>64450</v>
       </c>
       <c r="L534" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="M534" s="2">
         <v>0</v>
@@ -22844,10 +22847,10 @@
         </is>
       </c>
       <c r="K535" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L535" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="M535" s="2">
         <v>0</v>
@@ -22888,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="L536" s="1">
-        <v>44742</v>
+        <v>44738</v>
       </c>
       <c r="M536" s="2">
         <v>0</v>
@@ -22970,7 +22973,7 @@
         <v>0</v>
       </c>
       <c r="L538" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M538" s="2">
         <v>0</v>
@@ -23011,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="L539" s="1">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M539" s="2">
         <v>0</v>
@@ -23034,25 +23037,25 @@
       </c>
       <c r="E540" s="0" t="inlineStr">
         <is>
-          <t>2 BALCÕES CASTAS</t>
+          <t>2 BALCÕES CASTAS E 4 CAIXOTES</t>
         </is>
       </c>
       <c r="H540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="I540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="J540" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K540" s="2">
-        <v>3000</v>
+        <v>3498.81</v>
       </c>
       <c r="L540" s="1">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="M540" s="2">
         <v>0</v>
@@ -23079,10 +23082,10 @@
         </is>
       </c>
       <c r="H541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="I541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="J541" s="0" t="inlineStr">
         <is>
@@ -23090,10 +23093,10 @@
         </is>
       </c>
       <c r="K541" s="2">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L541" s="1">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="M541" s="2">
         <v>0</v>
@@ -23134,7 +23137,7 @@
         <v>20625</v>
       </c>
       <c r="L542" s="1">
-        <v>44669</v>
+        <v>44708</v>
       </c>
       <c r="M542" s="2">
         <v>0</v>
@@ -23181,6 +23184,457 @@
         <v>0</v>
       </c>
       <c r="N543" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="544">
+      <c r="A544" s="0">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>44644</v>
+      </c>
+      <c r="D544" s="0" t="inlineStr">
+        <is>
+          <t>V3A</t>
+        </is>
+      </c>
+      <c r="E544" s="0" t="inlineStr">
+        <is>
+          <t>PETROBRAS ROVR NA RIO2C</t>
+        </is>
+      </c>
+      <c r="H544" s="2">
+        <v>269000</v>
+      </c>
+      <c r="I544" s="2">
+        <v>269000</v>
+      </c>
+      <c r="J544" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K544" s="2">
+        <v>0</v>
+      </c>
+      <c r="L544" s="1">
+        <v>44718</v>
+      </c>
+      <c r="M544" s="2">
+        <v>0</v>
+      </c>
+      <c r="N544" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="545">
+      <c r="A545" s="0">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>44655</v>
+      </c>
+      <c r="D545" s="0" t="inlineStr">
+        <is>
+          <t>ÓTIMA CONCESSIONÁRIA</t>
+        </is>
+      </c>
+      <c r="E545" s="0" t="inlineStr">
+        <is>
+          <t>WARNER ANIMAIS FANTÁSTICOS</t>
+        </is>
+      </c>
+      <c r="H545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="I545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="J545" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K545" s="2">
+        <v>83000</v>
+      </c>
+      <c r="L545" s="1">
+        <v>44724</v>
+      </c>
+      <c r="M545" s="2">
+        <v>0</v>
+      </c>
+      <c r="N545" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="546">
+      <c r="A546" s="0">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>44655</v>
+      </c>
+      <c r="D546" s="0" t="inlineStr">
+        <is>
+          <t>NETZA</t>
+        </is>
+      </c>
+      <c r="E546" s="0" t="inlineStr">
+        <is>
+          <t>STAND EVE RIO2C</t>
+        </is>
+      </c>
+      <c r="H546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="I546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="J546" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K546" s="2">
+        <v>64459.99</v>
+      </c>
+      <c r="L546" s="1">
+        <v>44718</v>
+      </c>
+      <c r="M546" s="2">
+        <v>0</v>
+      </c>
+      <c r="N546" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="547">
+      <c r="A547" s="0">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>44658</v>
+      </c>
+      <c r="D547" s="0" t="inlineStr">
+        <is>
+          <t>CERVEJARIA  PRAYA</t>
+        </is>
+      </c>
+      <c r="E547" s="0" t="inlineStr">
+        <is>
+          <t>BAILE DO ENCANTO</t>
+        </is>
+      </c>
+      <c r="H547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="I547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J547" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K547" s="2">
+        <v>50000</v>
+      </c>
+      <c r="L547" s="1">
+        <v>44681</v>
+      </c>
+      <c r="M547" s="2">
+        <v>0</v>
+      </c>
+      <c r="N547" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="548">
+      <c r="A548" s="0">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>44658</v>
+      </c>
+      <c r="D548" s="0" t="inlineStr">
+        <is>
+          <t>AGÊNCIA TERRUÁ</t>
+        </is>
+      </c>
+      <c r="E548" s="0" t="inlineStr">
+        <is>
+          <t>STAND BANCO DO BRASIL RIO2C</t>
+        </is>
+      </c>
+      <c r="H548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="J548" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K548" s="2">
+        <v>200000</v>
+      </c>
+      <c r="L548" s="1">
+        <v>44719</v>
+      </c>
+      <c r="M548" s="2">
+        <v>0</v>
+      </c>
+      <c r="N548" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="549">
+      <c r="A549" s="0">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D549" s="0" t="inlineStr">
+        <is>
+          <t>LVHM</t>
+        </is>
+      </c>
+      <c r="E549" s="0" t="inlineStr">
+        <is>
+          <t>REMONTAGEM BAR BELVERDE</t>
+        </is>
+      </c>
+      <c r="H549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="I549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="J549" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K549" s="2">
+        <v>7500</v>
+      </c>
+      <c r="L549" s="1">
+        <v>44681</v>
+      </c>
+      <c r="M549" s="2">
+        <v>0</v>
+      </c>
+      <c r="N549" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="550">
+      <c r="A550" s="0">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1">
+        <v>44665</v>
+      </c>
+      <c r="D550" s="0" t="inlineStr">
+        <is>
+          <t>GLOBO SAT</t>
+        </is>
+      </c>
+      <c r="E550" s="0" t="inlineStr">
+        <is>
+          <t>TÚNEL DO AMOR</t>
+        </is>
+      </c>
+      <c r="H550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="J550" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="L550" s="1">
+        <v>44712</v>
+      </c>
+      <c r="M550" s="2">
+        <v>0</v>
+      </c>
+      <c r="N550" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="551">
+      <c r="A551" s="0">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1">
+        <v>44666</v>
+      </c>
+      <c r="D551" s="0" t="inlineStr">
+        <is>
+          <t>GLOBO COMUNICAÇÕES</t>
+        </is>
+      </c>
+      <c r="E551" s="0" t="inlineStr">
+        <is>
+          <t>CUBO RIO2C</t>
+        </is>
+      </c>
+      <c r="H551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="I551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="J551" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K551" s="2">
+        <v>75000</v>
+      </c>
+      <c r="L551" s="1">
+        <v>44712</v>
+      </c>
+      <c r="M551" s="2">
+        <v>0</v>
+      </c>
+      <c r="N551" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="552">
+      <c r="A552" s="0">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1">
+        <v>44667</v>
+      </c>
+      <c r="D552" s="0" t="inlineStr">
+        <is>
+          <t>BE COMUNICA</t>
+        </is>
+      </c>
+      <c r="E552" s="0" t="inlineStr">
+        <is>
+          <t>STAND DASA</t>
+        </is>
+      </c>
+      <c r="H552" s="2">
+        <v>85248</v>
+      </c>
+      <c r="I552" s="2">
+        <v>85248</v>
+      </c>
+      <c r="J552" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K552" s="2">
+        <v>85248</v>
+      </c>
+      <c r="L552" s="1">
+        <v>44717</v>
+      </c>
+      <c r="M552" s="2">
+        <v>0</v>
+      </c>
+      <c r="N552" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="553">
+      <c r="A553" s="0">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1">
+        <v>44683</v>
+      </c>
+      <c r="D553" s="0" t="inlineStr">
+        <is>
+          <t>DIALOGO URBANO - BARBARA SOLEDADE</t>
+        </is>
+      </c>
+      <c r="E553" s="0" t="inlineStr">
+        <is>
+          <t>STAND SUBMARINO (OBVIOUS)</t>
+        </is>
+      </c>
+      <c r="H553" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I553" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J553" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K553" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L553" s="1">
+        <v>44742</v>
+      </c>
+      <c r="M553" s="2">
+        <v>0</v>
+      </c>
+      <c r="N553" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="554">
+      <c r="A554" s="0">
+        <v>553</v>
+      </c>
+      <c r="B554" s="1">
+        <v>44685</v>
+      </c>
+      <c r="D554" s="0" t="inlineStr">
+        <is>
+          <t>VOID</t>
+        </is>
+      </c>
+      <c r="E554" s="0" t="inlineStr">
+        <is>
+          <t>VOID TIJUCA</t>
+        </is>
+      </c>
+      <c r="H554" s="2">
+        <v>49500</v>
+      </c>
+      <c r="I554" s="2">
+        <v>49500</v>
+      </c>
+      <c r="J554" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K554" s="2">
+        <v>49500</v>
+      </c>
+      <c r="L554" s="1">
+        <v>44713</v>
+      </c>
+      <c r="M554" s="2">
+        <v>0</v>
+      </c>
+      <c r="N554" s="2">
         <v>0</v>
       </c>
     </row>

--- a/public/migracao/vendas1.xlsx
+++ b/public/migracao/vendas1.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Vendas"/>
   </sheets>
   <definedNames>
-    <definedName name="Vendas">'Vendas'!$A$1:$N$554</definedName>
+    <definedName name="Vendas">'Vendas'!$A$1:$N$558</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N554"/>
+  <dimension ref="A1:N558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21575,11 +21575,16 @@
           <t>STANDE AMERICANAS DIA DAS CRIANÇAS</t>
         </is>
       </c>
+      <c r="G505" s="0" t="inlineStr">
+        <is>
+          <t>VALOR DO PROJETO 28K - FABRIZIO ASSUMIU 20K</t>
+        </is>
+      </c>
       <c r="H505" s="2">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="I505" s="2">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="J505" s="0" t="inlineStr">
         <is>
@@ -21587,10 +21592,10 @@
         </is>
       </c>
       <c r="K505" s="2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L505" s="1">
-        <v>44681</v>
+        <v>44798</v>
       </c>
       <c r="M505" s="2">
         <v>0</v>
@@ -23123,7 +23128,7 @@
         </is>
       </c>
       <c r="H542" s="2">
-        <v>20625</v>
+        <v>21680.33</v>
       </c>
       <c r="I542" s="2">
         <v>20625</v>
@@ -23369,10 +23374,10 @@
         </is>
       </c>
       <c r="H548" s="2">
-        <v>200000</v>
+        <v>196500</v>
       </c>
       <c r="I548" s="2">
-        <v>200000</v>
+        <v>196500</v>
       </c>
       <c r="J548" s="0" t="inlineStr">
         <is>
@@ -23380,10 +23385,10 @@
         </is>
       </c>
       <c r="K548" s="2">
-        <v>200000</v>
+        <v>196500</v>
       </c>
       <c r="L548" s="1">
-        <v>44719</v>
+        <v>44712</v>
       </c>
       <c r="M548" s="2">
         <v>0</v>
@@ -23424,7 +23429,7 @@
         <v>7500</v>
       </c>
       <c r="L549" s="1">
-        <v>44681</v>
+        <v>44704</v>
       </c>
       <c r="M549" s="2">
         <v>0</v>
@@ -23451,10 +23456,10 @@
         </is>
       </c>
       <c r="H550" s="2">
-        <v>300000</v>
+        <v>318651.25</v>
       </c>
       <c r="I550" s="2">
-        <v>300000</v>
+        <v>318651.25</v>
       </c>
       <c r="J550" s="0" t="inlineStr">
         <is>
@@ -23465,7 +23470,7 @@
         <v>300000</v>
       </c>
       <c r="L550" s="1">
-        <v>44712</v>
+        <v>44728</v>
       </c>
       <c r="M550" s="2">
         <v>0</v>
@@ -23626,7 +23631,7 @@
         </is>
       </c>
       <c r="K554" s="2">
-        <v>49500</v>
+        <v>53100</v>
       </c>
       <c r="L554" s="1">
         <v>44713</v>
@@ -23635,6 +23640,170 @@
         <v>0</v>
       </c>
       <c r="N554" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="555">
+      <c r="A555" s="0">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1">
+        <v>44698</v>
+      </c>
+      <c r="D555" s="0" t="inlineStr">
+        <is>
+          <t>MARINA GIN</t>
+        </is>
+      </c>
+      <c r="E555" s="0" t="inlineStr">
+        <is>
+          <t>25 LUMINOSOS</t>
+        </is>
+      </c>
+      <c r="H555" s="2">
+        <v>8750</v>
+      </c>
+      <c r="I555" s="2">
+        <v>8750</v>
+      </c>
+      <c r="J555" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K555" s="2">
+        <v>8750</v>
+      </c>
+      <c r="L555" s="1">
+        <v>44712</v>
+      </c>
+      <c r="M555" s="2">
+        <v>0</v>
+      </c>
+      <c r="N555" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="556">
+      <c r="A556" s="0">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1">
+        <v>44700</v>
+      </c>
+      <c r="D556" s="0" t="inlineStr">
+        <is>
+          <t>BETTER DRINKS</t>
+        </is>
+      </c>
+      <c r="E556" s="0" t="inlineStr">
+        <is>
+          <t>MANUTENÇÃO MOBILIÁRIA PRAYA</t>
+        </is>
+      </c>
+      <c r="H556" s="2">
+        <v>8280</v>
+      </c>
+      <c r="I556" s="2">
+        <v>8280</v>
+      </c>
+      <c r="J556" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K556" s="2">
+        <v>8280</v>
+      </c>
+      <c r="L556" s="1">
+        <v>44742</v>
+      </c>
+      <c r="M556" s="2">
+        <v>0</v>
+      </c>
+      <c r="N556" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="557">
+      <c r="A557" s="0">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1">
+        <v>44701</v>
+      </c>
+      <c r="D557" s="0" t="inlineStr">
+        <is>
+          <t>V3A</t>
+        </is>
+      </c>
+      <c r="E557" s="0" t="inlineStr">
+        <is>
+          <t>SUPERMED</t>
+        </is>
+      </c>
+      <c r="H557" s="2">
+        <v>161157</v>
+      </c>
+      <c r="I557" s="2">
+        <v>161157</v>
+      </c>
+      <c r="J557" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K557" s="2">
+        <v>161157</v>
+      </c>
+      <c r="L557" s="1">
+        <v>44706</v>
+      </c>
+      <c r="M557" s="2">
+        <v>0</v>
+      </c>
+      <c r="N557" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="558">
+      <c r="A558" s="0">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1">
+        <v>44706</v>
+      </c>
+      <c r="D558" s="0" t="inlineStr">
+        <is>
+          <t>BRUNO LANDEIRA</t>
+        </is>
+      </c>
+      <c r="E558" s="0" t="inlineStr">
+        <is>
+          <t>STAND NAVEIA SP</t>
+        </is>
+      </c>
+      <c r="H558" s="2">
+        <v>135900</v>
+      </c>
+      <c r="I558" s="2">
+        <v>135900</v>
+      </c>
+      <c r="J558" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K558" s="2">
+        <v>135900</v>
+      </c>
+      <c r="L558" s="1">
+        <v>44747</v>
+      </c>
+      <c r="M558" s="2">
+        <v>0</v>
+      </c>
+      <c r="N558" s="2">
         <v>0</v>
       </c>
     </row>

--- a/public/migracao/vendas1.xlsx
+++ b/public/migracao/vendas1.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Vendas"/>
   </sheets>
   <definedNames>
-    <definedName name="Vendas">'Vendas'!$A$1:$N$558</definedName>
+    <definedName name="Vendas">'Vendas'!$A$1:$N$561</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N558"/>
+  <dimension ref="A1:N561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -23128,7 +23128,7 @@
         </is>
       </c>
       <c r="H542" s="2">
-        <v>21680.33</v>
+        <v>22735.66</v>
       </c>
       <c r="I542" s="2">
         <v>20625</v>
@@ -23142,7 +23142,7 @@
         <v>20625</v>
       </c>
       <c r="L542" s="1">
-        <v>44708</v>
+        <v>44718</v>
       </c>
       <c r="M542" s="2">
         <v>0</v>
@@ -23209,6 +23209,11 @@
           <t>PETROBRAS ROVR NA RIO2C</t>
         </is>
       </c>
+      <c r="G544" s="0" t="inlineStr">
+        <is>
+          <t>ALTERADO VENC. DE 06/06 P/ 04/07</t>
+        </is>
+      </c>
       <c r="H544" s="2">
         <v>269000</v>
       </c>
@@ -23224,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="L544" s="1">
-        <v>44718</v>
+        <v>44746</v>
       </c>
       <c r="M544" s="2">
         <v>0</v>
@@ -23306,7 +23311,7 @@
         <v>64459.99</v>
       </c>
       <c r="L546" s="1">
-        <v>44718</v>
+        <v>44721</v>
       </c>
       <c r="M546" s="2">
         <v>0</v>
@@ -23332,6 +23337,11 @@
           <t>BAILE DO ENCANTO</t>
         </is>
       </c>
+      <c r="G547" s="0" t="inlineStr">
+        <is>
+          <t>DEPOSITADO PELO LANDEIRA</t>
+        </is>
+      </c>
       <c r="H547" s="2">
         <v>50000</v>
       </c>
@@ -23340,14 +23350,14 @@
       </c>
       <c r="J547" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K547" s="2">
         <v>50000</v>
       </c>
       <c r="L547" s="1">
-        <v>44681</v>
+        <v>44713</v>
       </c>
       <c r="M547" s="2">
         <v>0</v>
@@ -23467,7 +23477,7 @@
         </is>
       </c>
       <c r="K550" s="2">
-        <v>300000</v>
+        <v>318651.25</v>
       </c>
       <c r="L550" s="1">
         <v>44728</v>
@@ -23552,7 +23562,7 @@
         <v>85248</v>
       </c>
       <c r="L552" s="1">
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="M552" s="2">
         <v>0</v>
@@ -23750,7 +23760,7 @@
       </c>
       <c r="J557" s="0" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="K557" s="2">
@@ -23804,6 +23814,129 @@
         <v>0</v>
       </c>
       <c r="N558" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="559">
+      <c r="A559" s="0">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D559" s="0" t="inlineStr">
+        <is>
+          <t>DREAM FACTORY</t>
+        </is>
+      </c>
+      <c r="E559" s="0" t="inlineStr">
+        <is>
+          <t>ATIVAÇÕES MARATONA</t>
+        </is>
+      </c>
+      <c r="H559" s="2">
+        <v>266200</v>
+      </c>
+      <c r="I559" s="2">
+        <v>266200</v>
+      </c>
+      <c r="J559" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K559" s="2">
+        <v>266200</v>
+      </c>
+      <c r="L559" s="1">
+        <v>44742</v>
+      </c>
+      <c r="M559" s="2">
+        <v>0</v>
+      </c>
+      <c r="N559" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="560">
+      <c r="A560" s="0">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1">
+        <v>44721</v>
+      </c>
+      <c r="D560" s="0" t="inlineStr">
+        <is>
+          <t>MARINA GIN</t>
+        </is>
+      </c>
+      <c r="E560" s="0" t="inlineStr">
+        <is>
+          <t>5 CARRINHOS</t>
+        </is>
+      </c>
+      <c r="H560" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I560" s="2">
+        <v>12500</v>
+      </c>
+      <c r="J560" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K560" s="2">
+        <v>12500</v>
+      </c>
+      <c r="L560" s="1">
+        <v>44742</v>
+      </c>
+      <c r="M560" s="2">
+        <v>0</v>
+      </c>
+      <c r="N560" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="561">
+      <c r="A561" s="0">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1">
+        <v>44722</v>
+      </c>
+      <c r="D561" s="0" t="inlineStr">
+        <is>
+          <t>ESCOLA ELEVA</t>
+        </is>
+      </c>
+      <c r="E561" s="0" t="inlineStr">
+        <is>
+          <t>FESTA JUNINA 2022</t>
+        </is>
+      </c>
+      <c r="H561" s="2">
+        <v>106000</v>
+      </c>
+      <c r="I561" s="2">
+        <v>106000</v>
+      </c>
+      <c r="J561" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K561" s="2">
+        <v>0</v>
+      </c>
+      <c r="L561" s="1">
+        <v>44742</v>
+      </c>
+      <c r="M561" s="2">
+        <v>0</v>
+      </c>
+      <c r="N561" s="2">
         <v>0</v>
       </c>
     </row>
